--- a/src/carpool/statistical_comparison_results_test_4.xlsx
+++ b/src/carpool/statistical_comparison_results_test_4.xlsx
@@ -483,26 +483,26 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02383957466258045</v>
+        <v>0.004884085830840264</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02106771134093939</v>
+        <v>0.004382832222133432</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1616309012082932</v>
+        <v>0.004884085830840264</v>
       </c>
       <c r="E2" t="n">
-        <v>0.03921003842561819</v>
+        <v>0.004382832222133432</v>
       </c>
       <c r="F2" t="n">
-        <v>23</v>
+        <v>40.5</v>
       </c>
       <c r="G2" t="n">
-        <v>1.377287463208828e-11</v>
+        <v>1</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -513,26 +513,26 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.44836152818399</v>
+        <v>1.567672898726297</v>
       </c>
       <c r="C3" t="n">
-        <v>9.897102548000454</v>
+        <v>1.495286434201373</v>
       </c>
       <c r="D3" t="n">
-        <v>3.879246166152182</v>
+        <v>1.567672898726297</v>
       </c>
       <c r="E3" t="n">
-        <v>1.733948538855051</v>
+        <v>1.495286434201373</v>
       </c>
       <c r="F3" t="n">
-        <v>1230</v>
+        <v>40.5</v>
       </c>
       <c r="G3" t="n">
-        <v>1.090713190227612e-11</v>
+        <v>1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -543,26 +543,26 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6842465869507478</v>
+        <v>0.4602196025750698</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6498435080901719</v>
+        <v>0.4355141055805689</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3109510031420714</v>
+        <v>0.4602196025750698</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3475226108537794</v>
+        <v>0.4355141055805689</v>
       </c>
       <c r="F4" t="n">
-        <v>953</v>
+        <v>40.5</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0002325195230540498</v>
+        <v>1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -573,26 +573,26 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34.12226447547675</v>
+        <v>2.574927431160599</v>
       </c>
       <c r="C5" t="n">
-        <v>29.04491811040111</v>
+        <v>3.145243414348756</v>
       </c>
       <c r="D5" t="n">
-        <v>2.34384668957513</v>
+        <v>2.574927431160599</v>
       </c>
       <c r="E5" t="n">
-        <v>6.02228086843845</v>
+        <v>3.145243414348756</v>
       </c>
       <c r="F5" t="n">
-        <v>1196</v>
+        <v>40.5</v>
       </c>
       <c r="G5" t="n">
-        <v>1.437487244019223e-10</v>
+        <v>1</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -603,26 +603,26 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>89.64512608528138</v>
+        <v>75.9158669312795</v>
       </c>
       <c r="C6" t="n">
-        <v>1.513011305645038</v>
+        <v>21.83353867823982</v>
       </c>
       <c r="D6" t="n">
-        <v>67.48189552307129</v>
+        <v>75.9158669312795</v>
       </c>
       <c r="E6" t="n">
-        <v>57.90250930066988</v>
+        <v>21.83353867823982</v>
       </c>
       <c r="F6" t="n">
-        <v>1050</v>
+        <v>40.5</v>
       </c>
       <c r="G6" t="n">
-        <v>1.83342556201734e-06</v>
+        <v>1</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -714,37 +714,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02383957466258045</v>
+        <v>0.004884085830840264</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02106771134093939</v>
+        <v>0.004382832222133432</v>
       </c>
       <c r="E2" t="n">
-        <v>17.44836152818399</v>
+        <v>1.567672898726297</v>
       </c>
       <c r="F2" t="n">
-        <v>9.897102548000454</v>
+        <v>1.495286434201373</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6842465869507478</v>
+        <v>0.4602196025750698</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6498435080901719</v>
+        <v>0.4355141055805689</v>
       </c>
       <c r="I2" t="n">
-        <v>34.12226447547675</v>
+        <v>2.574927431160599</v>
       </c>
       <c r="J2" t="n">
-        <v>29.04491811040111</v>
+        <v>3.145243414348756</v>
       </c>
       <c r="K2" t="n">
-        <v>89.64512608528138</v>
+        <v>75.9158669312795</v>
       </c>
       <c r="L2" t="n">
-        <v>1.513011305645038</v>
+        <v>21.83353867823982</v>
       </c>
     </row>
     <row r="3">
@@ -754,37 +754,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1616309012082932</v>
+        <v>0.004884085830840264</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03921003842561819</v>
+        <v>0.004382832222133432</v>
       </c>
       <c r="E3" t="n">
-        <v>3.879246166152182</v>
+        <v>1.567672898726297</v>
       </c>
       <c r="F3" t="n">
-        <v>1.733948538855051</v>
+        <v>1.495286434201373</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3109510031420714</v>
+        <v>0.4602196025750698</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3475226108537794</v>
+        <v>0.4355141055805689</v>
       </c>
       <c r="I3" t="n">
-        <v>2.34384668957513</v>
+        <v>2.574927431160599</v>
       </c>
       <c r="J3" t="n">
-        <v>6.02228086843845</v>
+        <v>3.145243414348756</v>
       </c>
       <c r="K3" t="n">
-        <v>67.48189552307129</v>
+        <v>75.9158669312795</v>
       </c>
       <c r="L3" t="n">
-        <v>57.90250930066988</v>
+        <v>21.83353867823982</v>
       </c>
     </row>
   </sheetData>
